--- a/biology/Médecine/Disomie_uniparentale/Disomie_uniparentale.xlsx
+++ b/biology/Médecine/Disomie_uniparentale/Disomie_uniparentale.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La disomie uniparentale est la présence chez une personne de deux chromosomes d'une même paire provenant d'un seul de ses parents. Cette personne a donc bien 46 chromosomes mais 24 chromosomes proviennent de l'un des parents et 22 chromosomes proviennent de l'autre parent. La disomie est donc un mode de transmission inhabituel des maladies génétiques.
 Selon l'origine parentale, on parle de disomie maternelle ou paternelle.
@@ -516,7 +528,9 @@
           <t>Causes des disomies</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Trois mécanismes - ce n'est pas exhaustif - sont les plus probables : 
 - un gamète anormal disomique (qui habituellement conduit à une trisomie) rencontre un gamète nullosomique pour le même chromosome (qui habituellement mène à une monosomie). Il y a compensation des deux anomalies mais on se retrouve avec deux copies d'un parent, ce qui aboutit à un marquage uniquement paternel ou maternel de certains gènes par méthylations. 
@@ -550,23 +564,291 @@
           <t>Conséquences d'une disomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>La plupart du temps, les disomies n'ont aucune conséquences sur le fœtus, mais dans certains cas elles peuvent en avoir :
-Survenue d'une maladie récessive
-Si le chromosome dupliqué est porteur d'un allèle pathologique récessif. La mucoviscidose surviendrait une fois sur 500 par une disomie maternelle.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La plupart du temps, les disomies n'ont aucune conséquences sur le fœtus, mais dans certains cas elles peuvent en avoir :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Disomie_uniparentale</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Disomie_uniparentale</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Conséquences d'une disomie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Survenue d'une maladie récessive</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Si le chromosome dupliqué est porteur d'un allèle pathologique récessif. La mucoviscidose surviendrait une fois sur 500 par une disomie maternelle.
 Des maladies génétiques récessives très rares peuvent apparaître par ce mécanisme en l'absence de consanguinité.
-Survenue de maladies génétiques liées à des gènes soumis à empreinte
-Plusieurs maladies sont en rapport avec des gènes soumis à empreinte s'exprimant en cas de disomie uniparentale.
-Syndrome de Prader-Willi
-Dans 20% des cas du syndrome de Prader-Willi  , il existe une disomie uniparentale maternelle du chromosome 15.
-Syndrome d'Angelman
-Dans 5% des cas du syndrome d'Angelman , il existe une disomie uniparentale paternelle du chromosome 15.
-Syndrome de Silver-Russel
-Dans 10 % des cas du syndrome de Silver-Russel , il existe une disomie uniparentale maternelle du chromosome 7 humain[1].
-Diabète néonatal transitoire
-Dans 40% des cas du diabète néonatal transitoire , il existe une disomie uniparentale paternelle du chromosome 6.
-Syndrome de Beckwith-Wiedemann
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Disomie_uniparentale</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Disomie_uniparentale</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Conséquences d'une disomie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Survenue de maladies génétiques liées à des gènes soumis à empreinte</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Plusieurs maladies sont en rapport avec des gènes soumis à empreinte s'exprimant en cas de disomie uniparentale.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Disomie_uniparentale</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Disomie_uniparentale</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Conséquences d'une disomie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Survenue de maladies génétiques liées à des gènes soumis à empreinte</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Syndrome de Prader-Willi</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Dans 20% des cas du syndrome de Prader-Willi  , il existe une disomie uniparentale maternelle du chromosome 15.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Disomie_uniparentale</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Disomie_uniparentale</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Conséquences d'une disomie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Survenue de maladies génétiques liées à des gènes soumis à empreinte</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Syndrome d'Angelman</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Dans 5% des cas du syndrome d'Angelman , il existe une disomie uniparentale paternelle du chromosome 15.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Disomie_uniparentale</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Disomie_uniparentale</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Conséquences d'une disomie</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Survenue de maladies génétiques liées à des gènes soumis à empreinte</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Syndrome de Silver-Russel</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Dans 10 % des cas du syndrome de Silver-Russel , il existe une disomie uniparentale maternelle du chromosome 7 humain.</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Disomie_uniparentale</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Disomie_uniparentale</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Conséquences d'une disomie</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Survenue de maladies génétiques liées à des gènes soumis à empreinte</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Diabète néonatal transitoire</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans 40% des cas du diabète néonatal transitoire , il existe une disomie uniparentale paternelle du chromosome 6.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Disomie_uniparentale</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Disomie_uniparentale</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Conséquences d'une disomie</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Survenue de maladies génétiques liées à des gènes soumis à empreinte</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Syndrome de Beckwith-Wiedemann</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Dans 20 % des cas du syndrome de Beckwith-Wiedemann , il existe une disomie uniparentale paternelle du chromosome 11.</t>
         </is>
       </c>
